--- a/copilot-financial-functions-demo.xlsx
+++ b/copilot-financial-functions-demo.xlsx
@@ -5,21 +5,25 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://maqimzmnjbt5wavnbicv98tlhog-my.sharepoint.com/personal/george_stringfestanalytics_com/Documents/copilot-demo-files/copilot-excel-finance-accounting-demos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BFC5D4-A456-424C-9B49-F34D97FACAFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="123" documentId="8_{0C856143-E39D-4464-B397-015E3B52C2B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{407BA92C-1129-4FD3-8C38-992D2BCE040F}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="PMT" sheetId="9" r:id="rId1"/>
-    <sheet name="PV" sheetId="10" r:id="rId2"/>
-    <sheet name="FV" sheetId="11" r:id="rId3"/>
-    <sheet name="fv-one-way-data-table" sheetId="14" r:id="rId4"/>
-    <sheet name="fv-two-way-table" sheetId="15" r:id="rId5"/>
-    <sheet name="RATE" sheetId="12" r:id="rId6"/>
-    <sheet name="NPER" sheetId="13" r:id="rId7"/>
+    <sheet name="Financial Forecasting" sheetId="1" r:id="rId1"/>
+    <sheet name="Cost Reduction Impact" sheetId="2" r:id="rId2"/>
+    <sheet name="Budget vs. Actuals" sheetId="3" r:id="rId3"/>
+    <sheet name="Expense Categorization" sheetId="4" r:id="rId4"/>
+    <sheet name="PMT" sheetId="9" r:id="rId5"/>
+    <sheet name="PV" sheetId="10" r:id="rId6"/>
+    <sheet name="FV" sheetId="11" r:id="rId7"/>
+    <sheet name="fv-one-way-data-table" sheetId="14" r:id="rId8"/>
+    <sheet name="fv-two-way-table" sheetId="15" r:id="rId9"/>
+    <sheet name="RATE" sheetId="12" r:id="rId10"/>
+    <sheet name="NPER" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +43,109 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Costs</t>
+  </si>
+  <si>
+    <t>Net Profit</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Budgeted Q1</t>
+  </si>
+  <si>
+    <t>Actual Q1</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>Operations</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Expense Amount</t>
+  </si>
+  <si>
+    <t>Expense Type</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Travel</t>
+  </si>
+  <si>
+    <t>Supplies</t>
+  </si>
+  <si>
+    <t>Maintenance</t>
+  </si>
+  <si>
+    <t>Utilities</t>
+  </si>
+  <si>
+    <t>Taxi</t>
+  </si>
+  <si>
+    <t>Office Supplies</t>
+  </si>
+  <si>
+    <t>Flight</t>
+  </si>
+  <si>
+    <t>Equipment Repair</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Uber</t>
+  </si>
+  <si>
+    <t>Stationery</t>
+  </si>
+  <si>
+    <t>HVAC Repair</t>
+  </si>
+  <si>
+    <t>Water Bill</t>
+  </si>
+  <si>
+    <t>Printer Ink</t>
+  </si>
+  <si>
+    <t>"Analyze variances between budget and actuals for Q1 and highlight outliers."</t>
+  </si>
+  <si>
+    <t>"Categorize these expenses by type and summarize totals."</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Show the impact of a 10% cost reduction on net profit."</t>
+  </si>
+  <si>
+    <t>Forecast revenue for the next quarter assuming a 5% growth rate."</t>
+  </si>
+  <si>
+    <t>Highlight rows where the Date is before March 30, 2025 and the Amount is negative.</t>
+  </si>
   <si>
     <t>Loan amount</t>
   </si>
@@ -99,13 +205,22 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -121,7 +236,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -129,13 +244,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -146,7 +288,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="29">
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
@@ -176,6 +318,173 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -191,6 +500,55 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB8742DD-2D2C-4E3A-9B88-A64C7EFC864E}" name="revenues" displayName="revenues" ref="A1:B13" totalsRowShown="0" headerRowBorderDxfId="28" tableBorderDxfId="27">
+  <autoFilter ref="A1:B13" xr:uid="{FB8742DD-2D2C-4E3A-9B88-A64C7EFC864E}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{B58FCC30-EBE2-4DE7-9170-7E208D46BDCE}" name="Month" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{B8B7FF76-7CBB-4200-B9E9-485DB4FA11AA}" name="Revenue" dataDxfId="25"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{322D2543-5328-4664-9669-0EDBEA0FAC54}" name="cost_reduction" displayName="cost_reduction" ref="A1:D13" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22">
+  <autoFilter ref="A1:D13" xr:uid="{322D2543-5328-4664-9669-0EDBEA0FAC54}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{6E8F1269-4C57-4306-BA7F-5C6938B34212}" name="Month" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{A2014FBA-6509-41BC-BF1E-52DA5CB05498}" name="Revenue" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{1E5BA4E9-9C34-43CD-91C8-C4B3677AB072}" name="Costs" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{B4FD5CA2-8EA2-43E7-9103-AF292F90F1FA}" name="Net Profit" dataDxfId="18"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00CB039C-D734-4F99-AD3C-F755093EF7F0}" name="budgets" displayName="budgets" ref="A1:C5" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15">
+  <autoFilter ref="A1:C5" xr:uid="{00CB039C-D734-4F99-AD3C-F755093EF7F0}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{962ADBD3-1D8A-4D67-8532-1A5C279A7389}" name="Category"/>
+    <tableColumn id="2" xr3:uid="{E85DC068-012E-4A56-834A-47D2A121AEEE}" name="Budgeted Q1"/>
+    <tableColumn id="3" xr3:uid="{C207AE4F-7D35-45EF-B125-1A236B4308F6}" name="Actual Q1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DC1D36CC-0CEE-41A8-9CD1-DA1D30C7BFBC}" name="expenses" displayName="expenses" ref="A1:D11" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12">
+  <autoFilter ref="A1:D11" xr:uid="{DC1D36CC-0CEE-41A8-9CD1-DA1D30C7BFBC}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{ACFDABC3-09B0-4104-BAE3-4E5F0873ABCA}" name="Date" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{5B9F6FED-4976-4747-9310-A28676289539}" name="Expense Amount" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{F0A3551A-0060-4D4E-B2C8-2A8CAD9A3912}" name="Expense Type"/>
+    <tableColumn id="4" xr3:uid="{8D3366F3-A2A7-42DB-BC9E-8B47E980AE7E}" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2B2E08E9-650A-40C5-940B-4E07310BA162}" name="Table5" displayName="Table5" ref="A1:B6" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="A1:B6" xr:uid="{2B2E08E9-650A-40C5-940B-4E07310BA162}"/>
   <tableColumns count="2">
@@ -201,7 +559,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{97656E1D-D2DB-49CD-9D82-6722F47A6433}" name="Table6" displayName="Table6" ref="A1:F6" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A1:F6" xr:uid="{97656E1D-D2DB-49CD-9D82-6722F47A6433}"/>
   <tableColumns count="6">
@@ -502,10 +860,728 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="17.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.73046875" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>45382.714250479199</v>
+      </c>
+      <c r="B2" s="5">
+        <v>100000</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
+        <v>45412.714250479199</v>
+      </c>
+      <c r="B3" s="5">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>45443.714250479199</v>
+      </c>
+      <c r="B4" s="5">
+        <v>110250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>45473.714250479199</v>
+      </c>
+      <c r="B5" s="5">
+        <v>115762.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>45504.714250479199</v>
+      </c>
+      <c r="B6" s="5">
+        <v>121550.625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>45535.714250479199</v>
+      </c>
+      <c r="B7" s="5">
+        <v>127628.15625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>45565.714250479199</v>
+      </c>
+      <c r="B8" s="5">
+        <v>134009.56406250011</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>45596.714250479199</v>
+      </c>
+      <c r="B9" s="5">
+        <v>140710.04226562509</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
+        <v>45626.714250479199</v>
+      </c>
+      <c r="B10" s="5">
+        <v>147745.54437890631</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
+        <v>45657.714250479199</v>
+      </c>
+      <c r="B11" s="5">
+        <v>155132.82159785161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
+        <v>45688.714250479199</v>
+      </c>
+      <c r="B12" s="5">
+        <v>162889.46267774419</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <v>45716.714250479199</v>
+      </c>
+      <c r="B13" s="5">
+        <v>171033.93581163141</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{237906C6-6954-4109-B441-4C79F419C7E6}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.06640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="10">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="11">
+        <f>RATE(B2*B3, -B4, B1) * 12</f>
+        <v>7.4200957935045206E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{309EDB96-7472-4B02-9FEA-A1130BB9220B}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="15.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="10">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="10">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="12">
+        <f>NPER(B3/12, -B2, B1)</f>
+        <v>359.24702887431386</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.73046875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.06640625" style="5"/>
+    <col min="4" max="4" width="10.46484375" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>45382.714250479199</v>
+      </c>
+      <c r="B2" s="5">
+        <v>100000</v>
+      </c>
+      <c r="C2" s="5">
+        <v>50000</v>
+      </c>
+      <c r="D2" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
+        <v>45412.714250479199</v>
+      </c>
+      <c r="B3" s="5">
+        <v>105000</v>
+      </c>
+      <c r="C3" s="5">
+        <v>51500</v>
+      </c>
+      <c r="D3" s="5">
+        <v>53500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>45443.714250479199</v>
+      </c>
+      <c r="B4" s="5">
+        <v>110250</v>
+      </c>
+      <c r="C4" s="5">
+        <v>53045</v>
+      </c>
+      <c r="D4" s="5">
+        <v>57205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>45473.714250479199</v>
+      </c>
+      <c r="B5" s="5">
+        <v>115762.5</v>
+      </c>
+      <c r="C5" s="5">
+        <v>54636.35</v>
+      </c>
+      <c r="D5" s="5">
+        <v>61126.150000000023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>45504.714250479199</v>
+      </c>
+      <c r="B6" s="5">
+        <v>121550.625</v>
+      </c>
+      <c r="C6" s="5">
+        <v>56275.440499999997</v>
+      </c>
+      <c r="D6" s="5">
+        <v>65275.184500000018</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>45535.714250479199</v>
+      </c>
+      <c r="B7" s="5">
+        <v>127628.15625</v>
+      </c>
+      <c r="C7" s="5">
+        <v>57963.703715000003</v>
+      </c>
+      <c r="D7" s="5">
+        <v>69664.452535000019</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>45565.714250479199</v>
+      </c>
+      <c r="B8" s="5">
+        <v>134009.56406250011</v>
+      </c>
+      <c r="C8" s="5">
+        <v>59702.614826450008</v>
+      </c>
+      <c r="D8" s="5">
+        <v>74306.949236050044</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>45596.714250479199</v>
+      </c>
+      <c r="B9" s="5">
+        <v>140710.04226562509</v>
+      </c>
+      <c r="C9" s="5">
+        <v>61493.693271243508</v>
+      </c>
+      <c r="D9" s="5">
+        <v>79216.348994381551</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
+        <v>45626.714250479199</v>
+      </c>
+      <c r="B10" s="5">
+        <v>147745.54437890631</v>
+      </c>
+      <c r="C10" s="5">
+        <v>63338.504069380819</v>
+      </c>
+      <c r="D10" s="5">
+        <v>84407.040309525502</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
+        <v>45657.714250479199</v>
+      </c>
+      <c r="B11" s="5">
+        <v>155132.82159785161</v>
+      </c>
+      <c r="C11" s="5">
+        <v>65238.659191462248</v>
+      </c>
+      <c r="D11" s="5">
+        <v>89894.162406389369</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
+        <v>45688.714250479199</v>
+      </c>
+      <c r="B12" s="5">
+        <v>162889.46267774419</v>
+      </c>
+      <c r="C12" s="5">
+        <v>67195.818967206113</v>
+      </c>
+      <c r="D12" s="5">
+        <v>95693.643710538076</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <v>45716.714250479199</v>
+      </c>
+      <c r="B13" s="5">
+        <v>171033.93581163141</v>
+      </c>
+      <c r="C13" s="5">
+        <v>69211.693536222301</v>
+      </c>
+      <c r="D13" s="5">
+        <v>101822.24227540909</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9.796875" customWidth="1"/>
+    <col min="2" max="2" width="13.265625" customWidth="1"/>
+    <col min="3" max="3" width="10.53125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>20000</v>
+      </c>
+      <c r="C2">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>15000</v>
+      </c>
+      <c r="C3">
+        <v>16500</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>25000</v>
+      </c>
+      <c r="C4">
+        <v>27500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>18000</v>
+      </c>
+      <c r="C5">
+        <v>19800</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="17.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.46484375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="13.73046875" customWidth="1"/>
+    <col min="4" max="4" width="11.86328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>45716.714250577337</v>
+      </c>
+      <c r="B2" s="7">
+        <v>120</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
+        <v>45717.714250577337</v>
+      </c>
+      <c r="B3" s="7">
+        <v>300</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>45718.714250577337</v>
+      </c>
+      <c r="B4" s="7">
+        <v>150</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>45719.714250577337</v>
+      </c>
+      <c r="B5" s="7">
+        <v>230</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>45720.714250577337</v>
+      </c>
+      <c r="B6" s="7">
+        <v>180</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>45721.714250577337</v>
+      </c>
+      <c r="B7" s="7">
+        <v>90</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>45722.714250577337</v>
+      </c>
+      <c r="B8" s="7">
+        <v>300</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>45723.714250577337</v>
+      </c>
+      <c r="B9" s="7">
+        <v>450</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
+        <v>45724.714250577337</v>
+      </c>
+      <c r="B10" s="7">
+        <v>200</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
+        <v>45725.714250577337</v>
+      </c>
+      <c r="B11" s="7">
+        <v>130</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5798E5D4-78ED-4A42-A0F7-322C3EF8DF44}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -514,23 +1590,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
+        <v>34</v>
+      </c>
+      <c r="B1" s="5">
         <v>50000</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
+        <v>35</v>
+      </c>
+      <c r="B2" s="9">
         <v>0.05</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -538,14 +1614,14 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="2">
+      <c r="A6" s="8">
         <f>PMT(B2/B4, B3*B4, B1)</f>
         <v>-943.56168220054678</v>
       </c>
@@ -555,7 +1631,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61235065-15D1-4873-A4E1-365C56088B58}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -573,15 +1649,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="4">
+        <v>38</v>
+      </c>
+      <c r="B1" s="10">
         <v>500</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -589,14 +1665,14 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3">
+        <v>40</v>
+      </c>
+      <c r="B3" s="9">
         <v>0.04</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="2">
+      <c r="A5" s="8">
         <f>PV(B3/12, B2*12, -B1, 0, 0)</f>
         <v>16935.383210772936</v>
       </c>
@@ -606,11 +1682,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44EB0BC2-E0A9-4B8A-9009-6C8464E2B9A6}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -621,15 +1697,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="4">
+        <v>41</v>
+      </c>
+      <c r="B1" s="10">
         <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -637,14 +1713,14 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3">
+        <v>40</v>
+      </c>
+      <c r="B3" s="9">
         <v>0.05</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="2">
+      <c r="A5" s="8">
         <f>FV(B3/12, B2*12, -B1, 0, 0)</f>
         <v>7750.6671040065075</v>
       </c>
@@ -655,7 +1731,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA776CC5-A011-41FB-8AD6-89357A293495}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -670,53 +1746,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>11</v>
+      <c r="A1" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" s="7">
+      <c r="A2" s="13">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="8">
         <f>FV(0.05/12, 3*12, -200, 0, 0)</f>
         <v>7750.6671040065075</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" s="7">
+      <c r="A3" s="13">
         <v>4</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="8">
         <f>FV(0.05/12, 4*12, -200, 0, 0)</f>
         <v>10602.977041220203</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="7">
+      <c r="A4" s="13">
         <v>5</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="8">
         <f>FV(0.05/12, 5*12, -200, 0, 0)</f>
         <v>13601.216568168675</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>12</v>
+      <c r="A5" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="7">
+      <c r="A6" s="13">
         <v>20</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="8">
         <f>FV(0.05/12, 20*12, -200, 0, 0)</f>
         <v>82206.7337031364</v>
       </c>
@@ -729,7 +1805,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AC2524B-6C35-4C7D-B1F6-F862909B1834}">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -745,141 +1821,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>17</v>
+      <c r="A1" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="7">
+      <c r="A2" s="13">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="8">
         <f>FV(0.03/12, 3*12, -200, 0, 0)</f>
         <v>7524.1120618290042</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="8">
         <f>FV(0.04/12, 3*12, -200, 0, 0)</f>
         <v>7636.3124710748916</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="8">
         <f>FV(0.05/12, 3*12, -200, 0, 0)</f>
         <v>7750.6671040065075</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="8">
         <f>FV(0.06/12, 3*12, -200, 0, 0)</f>
         <v>7867.2209929365081</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="8">
         <f>FV(0.07/12, 3*12, -200, 0, 0)</f>
         <v>7986.020142066096</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="7">
+      <c r="A3" s="13">
         <v>4</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="8">
         <f>FV(0.03/12, 4*12, -200, 0, 0)</f>
         <v>10186.241683194534</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="8">
         <f>FV(0.04/12, 4*12, -200, 0, 0)</f>
         <v>10391.920198551579</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="8">
         <f>FV(0.05/12, 4*12, -200, 0, 0)</f>
         <v>10602.977041220203</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="8">
         <f>FV(0.06/12, 4*12, -200, 0, 0)</f>
         <v>10819.566443815178</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="8">
         <f>FV(0.07/12, 4*12, -200, 0, 0)</f>
         <v>11041.847241783667</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="7">
+      <c r="A4" s="13">
         <v>5</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="8">
         <f>FV(0.03/12, 5*12, -200, 0, 0)</f>
         <v>12929.342524421674</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="8">
         <f>FV(0.04/12, 5*12, -200, 0, 0)</f>
         <v>13259.795636527351</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="8">
         <f>FV(0.05/12, 5*12, -200, 0, 0)</f>
         <v>13601.216568168675</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="8">
         <f>FV(0.06/12, 5*12, -200, 0, 0)</f>
         <v>13954.006101972149</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="8">
         <f>FV(0.07/12, 5*12, -200, 0, 0)</f>
         <v>14318.580329622506</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>12</v>
+      <c r="A5" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="7">
+      <c r="A6" s="13">
         <v>20</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="8">
         <f>FV(0.03/12, 20*12, -200, 0, 0)</f>
         <v>65660.399625317223</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="8">
         <f>FV(0.04/12, 20*12, -200, 0, 0)</f>
         <v>73354.925217986223</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="8">
         <f>FV(0.05/12, 20*12, -200, 0, 0)</f>
         <v>82206.7337031364</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="8">
         <f>FV(0.06/12, 20*12, -200, 0, 0)</f>
         <v>92408.17903229309</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="8">
         <f>FV(0.07/12, 20*12, -200, 0, 0)</f>
         <v>104185.33196510337</v>
       </c>
@@ -890,109 +1966,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{237906C6-6954-4109-B441-4C79F419C7E6}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.06640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="5">
-        <f>RATE(B2*B3, -B4, B1) * 12</f>
-        <v>7.4200957935045206E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{309EDB96-7472-4B02-9FEA-A1130BB9220B}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="15.59765625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="4">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="6">
-        <f>NPER(B3/12, -B2, B1)</f>
-        <v>359.24702887431386</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>